--- a/Component Review.xlsx
+++ b/Component Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\altium-lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC89AAB-1261-4792-98A8-50DA6B9B64DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF4345-983D-40FD-8097-1C1F2324DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">       Design Item ID</t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t>MFR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>CON80: LAUNCHXL-F28379D</t>
+  </si>
+  <si>
+    <t>Texas InstrumentsLAUNCHXL-F28379D</t>
+  </si>
+  <si>
+    <t>J?</t>
+  </si>
+  <si>
+    <t>LAUNCHXL-F28379D</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>CON20: TD-110-G-AA</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>TD-110-G-AA</t>
   </si>
 </sst>
 </file>
@@ -447,21 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
@@ -474,10 +501,10 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
@@ -498,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>5</v>
@@ -535,14 +562,56 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="9"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Component Review.xlsx
+++ b/Component Review.xlsx
@@ -5,43 +5,48 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\altium-lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\altium-lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF4345-983D-40FD-8097-1C1F2324DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174053AB-372E-4E4D-848F-89C72FBF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">       Design Item ID</t>
   </si>
   <si>
-    <t xml:space="preserve">       Manufacturer</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Manufacturer Part Number</t>
   </si>
   <si>
     <t xml:space="preserve">       Designators</t>
   </si>
   <si>
-    <t xml:space="preserve">       Comment</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Footprint</t>
   </si>
   <si>
@@ -57,9 +62,6 @@
     <t>Sch Sym.</t>
   </si>
   <si>
-    <t>Review Status</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -72,18 +74,12 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>MFR</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
     <t>CON80: LAUNCHXL-F28379D</t>
   </si>
   <si>
-    <t>Texas InstrumentsLAUNCHXL-F28379D</t>
-  </si>
-  <si>
     <t>J?</t>
   </si>
   <si>
@@ -96,10 +92,31 @@
     <t>CON20: TD-110-G-AA</t>
   </si>
   <si>
-    <t>Samtec</t>
-  </si>
-  <si>
     <t>TD-110-G-AA</t>
+  </si>
+  <si>
+    <t>R?</t>
+  </si>
+  <si>
+    <t>C?</t>
+  </si>
+  <si>
+    <t>10K 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>RESC2012X05N</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0</t>
+  </si>
+  <si>
+    <t>10uF 10% 100V X6S 1206</t>
+  </si>
+  <si>
+    <t>C3216X6S2A106K160AC</t>
+  </si>
+  <si>
+    <t>CAPC3216X18N</t>
   </si>
 </sst>
 </file>
@@ -172,11 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,13 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -474,143 +484,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(AND(F3:I3),"OK","NOK")</f>
+        <v>OK</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K5" si="0">IF(AND(F4:I4),"OK","NOK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(AND(F6:I6),"OK","NOK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
+      <c r="K7" t="str">
+        <f>IF(AND(F7:I7),"OK","NOK")</f>
+        <v>NOK</v>
       </c>
     </row>
   </sheetData>

--- a/Component Review.xlsx
+++ b/Component Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\altium-lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174053AB-372E-4E4D-848F-89C72FBF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E199B2-6E0F-4031-848F-9D85F40E5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
   <si>
     <t xml:space="preserve">       Design Item ID</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>CAPC3216X18N</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>SD 1.2kV 7.9A TO-247</t>
+  </si>
+  <si>
+    <t>NCT-L</t>
+  </si>
+  <si>
+    <t>SD?</t>
+  </si>
+  <si>
+    <t>TO247-3-NCT</t>
   </si>
 </sst>
 </file>
@@ -484,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,6 +707,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -709,6 +739,2424 @@
       </c>
       <c r="K7" t="str">
         <f>IF(AND(F7:I7),"OK","NOK")</f>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ref="K8:K71" si="1">IF(AND(F8:I8),"OK","NOK")</f>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" ref="K72:K122" si="2">IF(AND(F72:I72),"OK","NOK")</f>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="76" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="95" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="97" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="98" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="99" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="100" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="101" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="102" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="103" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="104" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="105" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="106" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="107" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="108" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="109" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="110" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="111" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="112" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="113" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="114" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="115" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="116" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="117" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="118" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="119" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="120" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="121" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="122" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>

--- a/Component Review.xlsx
+++ b/Component Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\altium-lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E199B2-6E0F-4031-848F-9D85F40E5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABF287-9725-4544-9B8C-1ED1C6E6BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t xml:space="preserve">       Design Item ID</t>
   </si>
@@ -132,6 +132,93 @@
   </si>
   <si>
     <t>TO247-3-NCT</t>
+  </si>
+  <si>
+    <t>1K 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>1K 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>1M 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>10K 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>33nF 630V X7R 1206</t>
+  </si>
+  <si>
+    <t>100K 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>100K 1/4W 1206</t>
+  </si>
+  <si>
+    <t>100R 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>IC: UCC21710QDWRQ1</t>
+  </si>
+  <si>
+    <t>IGBT 650V 30A</t>
+  </si>
+  <si>
+    <t>1R 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>1R 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>10R 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>10R 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>100L 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>100nF SOV X7R 0805</t>
+  </si>
+  <si>
+    <t>100R 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>68pF 10% 630V C0G 0805</t>
+  </si>
+  <si>
+    <t>10uF 50V X7R 1206</t>
+  </si>
+  <si>
+    <t>1uF 10% SOV X7R 1206</t>
+  </si>
+  <si>
+    <t>1uF 10% 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>1M 1/4W 0805</t>
+  </si>
+  <si>
+    <t>100L 1/4W 0805</t>
+  </si>
+  <si>
+    <t>RESC3116X06N</t>
+  </si>
+  <si>
+    <t>CAPC2012X10N</t>
+  </si>
+  <si>
+    <t>U?</t>
+  </si>
+  <si>
+    <t>Q?</t>
+  </si>
+  <si>
+    <t>IGW30N65L5</t>
+  </si>
+  <si>
+    <t>UCC21710QDWRQ1</t>
   </si>
 </sst>
 </file>
@@ -499,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7" t="str">
         <f>IF(AND(F7:I7),"OK","NOK")</f>
@@ -746,6 +833,16 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -759,14 +856,27 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ref="K8:K71" si="1">IF(AND(F8:I8),"OK","NOK")</f>
+        <f t="shared" ref="K8:K70" si="1">IF(AND(F8:I8),"OK","NOK")</f>
         <v>NOK</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -780,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -788,6 +898,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -801,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -809,6 +932,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -822,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -830,6 +966,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -843,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -851,6 +1000,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -864,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -872,6 +1034,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F14">
         <v>0</v>
       </c>
@@ -885,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -893,6 +1068,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -906,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -914,6 +1102,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -927,14 +1128,27 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -948,14 +1162,27 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -969,14 +1196,27 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -990,14 +1230,27 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1011,14 +1264,27 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1032,14 +1298,27 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -1053,14 +1332,27 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1074,14 +1366,27 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -1095,14 +1400,27 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1116,14 +1434,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -1137,14 +1468,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -1158,14 +1502,27 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -1179,14 +1536,26 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -1200,14 +1569,26 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -1221,14 +1602,14 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F31">
         <v>0</v>
       </c>
@@ -1241,15 +1622,12 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F32">
         <v>0</v>
       </c>
@@ -1261,9 +1639,6 @@
       </c>
       <c r="I32">
         <v>0</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -1283,9 +1658,6 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1304,9 +1676,6 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1325,9 +1694,6 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1346,9 +1712,6 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1367,9 +1730,6 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1388,9 +1748,6 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K38" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1409,9 +1766,6 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1430,9 +1784,6 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1451,9 +1802,6 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1472,9 +1820,6 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1493,9 +1838,6 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1514,9 +1856,6 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1535,9 +1874,6 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1556,9 +1892,6 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1577,9 +1910,6 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1598,9 +1928,6 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K48" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1619,9 +1946,6 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1640,9 +1964,6 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K50" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1661,9 +1982,6 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K51" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1682,9 +2000,6 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1703,9 +2018,6 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K53" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1724,9 +2036,6 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K54" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1745,9 +2054,6 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1766,9 +2072,6 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K56" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1787,9 +2090,6 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K57" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1808,9 +2108,6 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K58" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1829,9 +2126,6 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K59" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1850,9 +2144,6 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K60" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1871,9 +2162,6 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K61" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1892,9 +2180,6 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K62" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1913,9 +2198,6 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K63" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1934,9 +2216,6 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K64" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1955,9 +2234,6 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K65" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1976,9 +2252,6 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K66" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -1997,9 +2270,6 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K67" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -2018,9 +2288,6 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K68" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -2039,9 +2306,6 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -2060,9 +2324,6 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K70" t="str">
         <f t="shared" si="1"/>
         <v>NOK</v>
@@ -2081,11 +2342,8 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K71:K121" si="2">IF(AND(F71:I71),"OK","NOK")</f>
         <v>NOK</v>
       </c>
     </row>
@@ -2102,11 +2360,8 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K72" t="str">
-        <f t="shared" ref="K72:K122" si="2">IF(AND(F72:I72),"OK","NOK")</f>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -2123,9 +2378,6 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K73" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2144,9 +2396,6 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K74" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2165,9 +2414,6 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K75" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2186,9 +2432,6 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K76" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2207,9 +2450,6 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K77" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2228,9 +2468,6 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K78" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2249,9 +2486,6 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K79" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2270,9 +2504,6 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K80" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2291,9 +2522,6 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K81" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2312,9 +2540,6 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K82" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2333,9 +2558,6 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K83" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2354,9 +2576,6 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K84" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2375,9 +2594,6 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K85" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2396,9 +2612,6 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K86" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2417,9 +2630,6 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K87" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2438,9 +2648,6 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K88" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2459,9 +2666,6 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K89" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2480,9 +2684,6 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K90" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2501,9 +2702,6 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K91" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2522,9 +2720,6 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K92" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2543,9 +2738,6 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K93" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2564,9 +2756,6 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K94" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2585,9 +2774,6 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K95" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2606,9 +2792,6 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K96" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2627,9 +2810,6 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K97" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2648,9 +2828,6 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K98" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2669,9 +2846,6 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K99" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2690,9 +2864,6 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2711,9 +2882,6 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K101" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2732,9 +2900,6 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K102" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2753,9 +2918,6 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K103" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2774,9 +2936,6 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K104" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2795,9 +2954,6 @@
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K105" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2816,9 +2972,6 @@
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K106" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2837,9 +2990,6 @@
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K107" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2858,9 +3008,6 @@
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K108" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2879,9 +3026,6 @@
       <c r="I109">
         <v>0</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K109" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2900,9 +3044,6 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K110" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2921,9 +3062,6 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K111" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2942,9 +3080,6 @@
       <c r="I112">
         <v>0</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K112" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2963,9 +3098,6 @@
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K113" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -2984,9 +3116,6 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K114" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3005,9 +3134,6 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K115" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3026,9 +3152,6 @@
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K116" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3047,9 +3170,6 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K117" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3068,9 +3188,6 @@
       <c r="I118">
         <v>0</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K118" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3089,9 +3206,6 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K119" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3110,9 +3224,6 @@
       <c r="I120">
         <v>0</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K120" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
@@ -3131,31 +3242,7 @@
       <c r="I121">
         <v>0</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K121" t="str">
-        <f t="shared" si="2"/>
-        <v>NOK</v>
-      </c>
-    </row>
-    <row r="122" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K122" t="str">
         <f t="shared" si="2"/>
         <v>NOK</v>
       </c>

--- a/Component Review.xlsx
+++ b/Component Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\altium-lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\altium-lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABF287-9725-4544-9B8C-1ED1C6E6BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E392E7-6458-409F-9636-781A7209FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t xml:space="preserve">       Design Item ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>NCT-L</t>
   </si>
   <si>
-    <t>SD?</t>
-  </si>
-  <si>
     <t>TO247-3-NCT</t>
   </si>
   <si>
@@ -149,30 +146,18 @@
     <t>33nF 630V X7R 1206</t>
   </si>
   <si>
-    <t>100K 1% 1/4W 0805</t>
-  </si>
-  <si>
     <t>100K 1/4W 1206</t>
   </si>
   <si>
-    <t>100R 1% 1/4W 0805</t>
-  </si>
-  <si>
     <t>IC: UCC21710QDWRQ1</t>
   </si>
   <si>
-    <t>IGBT 650V 30A</t>
-  </si>
-  <si>
     <t>1R 1% 1/4W 0805</t>
   </si>
   <si>
     <t>1R 1% 1/4W 1206</t>
   </si>
   <si>
-    <t>10R 1% 1/4W 0805</t>
-  </si>
-  <si>
     <t>10R 1% 1/4W 1206</t>
   </si>
   <si>
@@ -191,18 +176,9 @@
     <t>10uF 50V X7R 1206</t>
   </si>
   <si>
-    <t>1uF 10% SOV X7R 1206</t>
-  </si>
-  <si>
     <t>1uF 10% 50V X7R 0805</t>
   </si>
   <si>
-    <t>1M 1/4W 0805</t>
-  </si>
-  <si>
-    <t>100L 1/4W 0805</t>
-  </si>
-  <si>
     <t>RESC3116X06N</t>
   </si>
   <si>
@@ -219,6 +195,99 @@
   </si>
   <si>
     <t>UCC21710QDWRQ1</t>
+  </si>
+  <si>
+    <t>RMCF1206FT100R</t>
+  </si>
+  <si>
+    <t>RMCF1206FT100K</t>
+  </si>
+  <si>
+    <t>RMCF0805FT100R</t>
+  </si>
+  <si>
+    <t>RMCF0805FTR100</t>
+  </si>
+  <si>
+    <t>RMCF1206FT100</t>
+  </si>
+  <si>
+    <t>RMCF0805FT100K</t>
+  </si>
+  <si>
+    <t>100K 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>100L 1/8W 0805</t>
+  </si>
+  <si>
+    <t>100R 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RMCF1206FT10R0</t>
+  </si>
+  <si>
+    <t>RMCF1206FT10K0</t>
+  </si>
+  <si>
+    <t>10R 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10R0</t>
+  </si>
+  <si>
+    <t>RMCF1206FT1R00</t>
+  </si>
+  <si>
+    <t>RMCF1206FT1M00</t>
+  </si>
+  <si>
+    <t>RMCF1206FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1R00</t>
+  </si>
+  <si>
+    <t>1M 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1M00</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1K00</t>
+  </si>
+  <si>
+    <t>D?</t>
+  </si>
+  <si>
+    <t>TO247P159X260-3</t>
+  </si>
+  <si>
+    <t>SOIC127P1030X265-16N</t>
+  </si>
+  <si>
+    <t>C0805C680JBGACTU</t>
+  </si>
+  <si>
+    <t>C3216X7R2J333K160AA</t>
+  </si>
+  <si>
+    <t>C3216X7R1H106K160AC</t>
+  </si>
+  <si>
+    <t>1uF 10% 50V X7R 1206</t>
+  </si>
+  <si>
+    <t>C2012X7R1H105K125AB</t>
+  </si>
+  <si>
+    <t>C3216X7R1H105K160AB</t>
+  </si>
+  <si>
+    <t>C2012X7R1H104K125AM</t>
+  </si>
+  <si>
+    <t>IGBT 650V 85A</t>
   </si>
 </sst>
 </file>
@@ -588,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,29 +873,29 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="str">
         <f>IF(AND(F7:I7),"OK","NOK")</f>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -834,9 +903,11 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -844,23 +915,23 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:K70" si="1">IF(AND(F8:I8),"OK","NOK")</f>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -868,33 +939,35 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -902,9 +975,11 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
@@ -912,23 +987,23 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -936,33 +1011,35 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -970,9 +1047,11 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -980,23 +1059,23 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1004,33 +1083,35 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1038,33 +1119,35 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1072,9 +1155,11 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -1082,23 +1167,23 @@
         <v>26</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1106,33 +1191,35 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1140,9 +1227,11 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -1150,23 +1239,23 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1174,33 +1263,35 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1208,9 +1299,11 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -1218,23 +1311,23 @@
         <v>26</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1242,9 +1335,11 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -1252,23 +1347,23 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1276,33 +1371,35 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1310,9 +1407,11 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -1320,23 +1419,23 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1344,33 +1443,35 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1378,9 +1479,11 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
@@ -1388,23 +1491,23 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1412,33 +1515,35 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1446,33 +1551,35 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1480,9 +1587,11 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -1490,23 +1599,23 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1514,33 +1623,35 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1548,32 +1659,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1581,32 +1695,35 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
